--- a/Code/Results/Cases/Case_5_252/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_252/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.03039645154056</v>
+        <v>1.059843338016958</v>
       </c>
       <c r="D2">
-        <v>1.041648530211702</v>
+        <v>1.057488595582969</v>
       </c>
       <c r="E2">
-        <v>1.038980066986588</v>
+        <v>1.064954358630998</v>
       </c>
       <c r="F2">
-        <v>1.042862977473462</v>
+        <v>1.074008256550537</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059905093463365</v>
+        <v>1.051316569052303</v>
       </c>
       <c r="J2">
-        <v>1.051704521781316</v>
+        <v>1.064827267394267</v>
       </c>
       <c r="K2">
-        <v>1.052556597052648</v>
+        <v>1.060223427134904</v>
       </c>
       <c r="L2">
-        <v>1.049921799421254</v>
+        <v>1.067668902807051</v>
       </c>
       <c r="M2">
-        <v>1.053755793864253</v>
+        <v>1.076698606907402</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.03675654465698</v>
+        <v>1.061114870383562</v>
       </c>
       <c r="D3">
-        <v>1.046477676023527</v>
+        <v>1.05845684050984</v>
       </c>
       <c r="E3">
-        <v>1.044622786287972</v>
+        <v>1.06612946171137</v>
       </c>
       <c r="F3">
-        <v>1.049209933056124</v>
+        <v>1.075354904110726</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062514235656357</v>
+        <v>1.051749249178972</v>
       </c>
       <c r="J3">
-        <v>1.056292985244356</v>
+        <v>1.065750676083208</v>
       </c>
       <c r="K3">
-        <v>1.056548495855978</v>
+        <v>1.06100512603514</v>
       </c>
       <c r="L3">
-        <v>1.054714853968665</v>
+        <v>1.068658410990063</v>
       </c>
       <c r="M3">
-        <v>1.05924962349537</v>
+        <v>1.077860996936937</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.040763519186221</v>
+        <v>1.061936978308239</v>
       </c>
       <c r="D4">
-        <v>1.049521988596834</v>
+        <v>1.059082677099288</v>
       </c>
       <c r="E4">
-        <v>1.048182645200004</v>
+        <v>1.066889439369922</v>
       </c>
       <c r="F4">
-        <v>1.053216117632809</v>
+        <v>1.076226201130027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064146228055802</v>
+        <v>1.052027541051118</v>
       </c>
       <c r="J4">
-        <v>1.059178999307434</v>
+        <v>1.066347004910497</v>
       </c>
       <c r="K4">
-        <v>1.059057323529333</v>
+        <v>1.061509636208021</v>
       </c>
       <c r="L4">
-        <v>1.057732350690606</v>
+        <v>1.069297718326626</v>
       </c>
       <c r="M4">
-        <v>1.062712048065307</v>
+        <v>1.078612520720356</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.042423337916978</v>
+        <v>1.062282438033621</v>
       </c>
       <c r="D5">
-        <v>1.050783415160587</v>
+        <v>1.059345617109901</v>
       </c>
       <c r="E5">
-        <v>1.049658361387203</v>
+        <v>1.067208842431637</v>
       </c>
       <c r="F5">
-        <v>1.054877367460307</v>
+        <v>1.076592479655903</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064819372888596</v>
+        <v>1.052144133647642</v>
       </c>
       <c r="J5">
-        <v>1.060373282978867</v>
+        <v>1.066597421605677</v>
       </c>
       <c r="K5">
-        <v>1.060095034963738</v>
+        <v>1.061721422496386</v>
       </c>
       <c r="L5">
-        <v>1.058981715931895</v>
+        <v>1.06956625302288</v>
       </c>
       <c r="M5">
-        <v>1.064146543538516</v>
+        <v>1.078928315460299</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.042700614162532</v>
+        <v>1.062340433278</v>
       </c>
       <c r="D6">
-        <v>1.050994159058914</v>
+        <v>1.059389756463154</v>
       </c>
       <c r="E6">
-        <v>1.049904946491571</v>
+        <v>1.067262466313841</v>
       </c>
       <c r="F6">
-        <v>1.055154985112498</v>
+        <v>1.076653978654047</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064931652583145</v>
+        <v>1.052163686558265</v>
       </c>
       <c r="J6">
-        <v>1.060572718956637</v>
+        <v>1.066639451317128</v>
       </c>
       <c r="K6">
-        <v>1.060268295620384</v>
+        <v>1.06175696423051</v>
       </c>
       <c r="L6">
-        <v>1.059190389605001</v>
+        <v>1.069611327751985</v>
       </c>
       <c r="M6">
-        <v>1.064386192353915</v>
+        <v>1.078981330310139</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.040785793289485</v>
+        <v>1.061941594960863</v>
       </c>
       <c r="D7">
-        <v>1.049538915052828</v>
+        <v>1.059086191149768</v>
       </c>
       <c r="E7">
-        <v>1.048202444411221</v>
+        <v>1.06689370760593</v>
       </c>
       <c r="F7">
-        <v>1.05323840403447</v>
+        <v>1.076231095415828</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064155272836312</v>
+        <v>1.052029100542529</v>
       </c>
       <c r="J7">
-        <v>1.059195030908235</v>
+        <v>1.066350352087945</v>
       </c>
       <c r="K7">
-        <v>1.059071255306551</v>
+        <v>1.061512467321864</v>
       </c>
       <c r="L7">
-        <v>1.057749119027058</v>
+        <v>1.069301307401733</v>
       </c>
       <c r="M7">
-        <v>1.062731297499638</v>
+        <v>1.078616740954962</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.032569104441676</v>
+        <v>1.060273196622993</v>
       </c>
       <c r="D8">
-        <v>1.043297762104195</v>
+        <v>1.057815960874313</v>
       </c>
       <c r="E8">
-        <v>1.040906605372786</v>
+        <v>1.065351572985682</v>
       </c>
       <c r="F8">
-        <v>1.045029541695409</v>
+        <v>1.074463379512886</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060798854908275</v>
+        <v>1.051463144105225</v>
       </c>
       <c r="J8">
-        <v>1.053272956263644</v>
+        <v>1.065139582965402</v>
       </c>
       <c r="K8">
-        <v>1.053921517968324</v>
+        <v>1.060487876428537</v>
       </c>
       <c r="L8">
-        <v>1.051559576768553</v>
+        <v>1.068003514067317</v>
       </c>
       <c r="M8">
-        <v>1.055632242110969</v>
+        <v>1.077091572086989</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.017198839513467</v>
+        <v>1.057328077904751</v>
       </c>
       <c r="D9">
-        <v>1.031641682310855</v>
+        <v>1.055572346752931</v>
       </c>
       <c r="E9">
-        <v>1.027300745127885</v>
+        <v>1.062631017901786</v>
       </c>
       <c r="F9">
-        <v>1.029736263579962</v>
+        <v>1.071347737967042</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054427188677805</v>
+        <v>1.05045292942184</v>
       </c>
       <c r="J9">
-        <v>1.042158545986642</v>
+        <v>1.062996931572487</v>
       </c>
       <c r="K9">
-        <v>1.044241438392734</v>
+        <v>1.058672371640555</v>
       </c>
       <c r="L9">
-        <v>1.039965888336194</v>
+        <v>1.065709100971357</v>
       </c>
       <c r="M9">
-        <v>1.042364634374521</v>
+        <v>1.074399160397423</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006258653725949</v>
+        <v>1.055360974121482</v>
       </c>
       <c r="D10">
-        <v>1.023363589352109</v>
+        <v>1.054072925017169</v>
       </c>
       <c r="E10">
-        <v>1.01764925915852</v>
+        <v>1.060815063024424</v>
       </c>
       <c r="F10">
-        <v>1.018896426165716</v>
+        <v>1.069269983939146</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049831862164006</v>
+        <v>1.049770687611687</v>
       </c>
       <c r="J10">
-        <v>1.034226137990455</v>
+        <v>1.061562227159308</v>
       </c>
       <c r="K10">
-        <v>1.037323442315232</v>
+        <v>1.057455170018461</v>
       </c>
       <c r="L10">
-        <v>1.031706998626003</v>
+        <v>1.064174281820858</v>
       </c>
       <c r="M10">
-        <v>1.032932680559929</v>
+        <v>1.072600777576274</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001333031473735</v>
+        <v>1.054508275049999</v>
       </c>
       <c r="D11">
-        <v>1.019642317475677</v>
+        <v>1.053422760687492</v>
       </c>
       <c r="E11">
-        <v>1.013312749333292</v>
+        <v>1.060028165110829</v>
       </c>
       <c r="F11">
-        <v>1.014027599546945</v>
+        <v>1.068370094349853</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047749400287668</v>
+        <v>1.049473173482858</v>
       </c>
       <c r="J11">
-        <v>1.030650459735036</v>
+        <v>1.060939465915976</v>
       </c>
       <c r="K11">
-        <v>1.034203077581573</v>
+        <v>1.0569264545258</v>
       </c>
       <c r="L11">
-        <v>1.027987899105607</v>
+        <v>1.063508419673574</v>
       </c>
       <c r="M11">
-        <v>1.028689737277629</v>
+        <v>1.071821203632849</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9994728192033092</v>
+        <v>1.054191400859505</v>
       </c>
       <c r="D12">
-        <v>1.018237943149519</v>
+        <v>1.053181122469866</v>
       </c>
       <c r="E12">
-        <v>1.011676462219409</v>
+        <v>1.059735786291483</v>
       </c>
       <c r="F12">
-        <v>1.012190657641983</v>
+        <v>1.068035800214284</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04696098136933</v>
+        <v>1.049362346626016</v>
       </c>
       <c r="J12">
-        <v>1.029299507037193</v>
+        <v>1.060707912804527</v>
       </c>
       <c r="K12">
-        <v>1.033023880075165</v>
+        <v>1.056729814501057</v>
       </c>
       <c r="L12">
-        <v>1.026583327293781</v>
+        <v>1.06326089431755</v>
       </c>
       <c r="M12">
-        <v>1.02708797224898</v>
+        <v>1.071531502242107</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9998732662990841</v>
+        <v>1.054259378020876</v>
       </c>
       <c r="D13">
-        <v>1.018540214695605</v>
+        <v>1.053232960980351</v>
       </c>
       <c r="E13">
-        <v>1.012028638228638</v>
+        <v>1.059798506659346</v>
       </c>
       <c r="F13">
-        <v>1.012586011833945</v>
+        <v>1.068107509088996</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047130791034913</v>
+        <v>1.049386133726242</v>
       </c>
       <c r="J13">
-        <v>1.02959035002929</v>
+        <v>1.060757592269731</v>
       </c>
       <c r="K13">
-        <v>1.033277758156268</v>
+        <v>1.056772005873752</v>
       </c>
       <c r="L13">
-        <v>1.026885688072571</v>
+        <v>1.063313998195261</v>
       </c>
       <c r="M13">
-        <v>1.027432753839406</v>
+        <v>1.071593650242807</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001179904545535</v>
+        <v>1.05448208508726</v>
       </c>
       <c r="D14">
-        <v>1.019526692571483</v>
+        <v>1.053402789630372</v>
       </c>
       <c r="E14">
-        <v>1.013178025364231</v>
+        <v>1.060003998838503</v>
       </c>
       <c r="F14">
-        <v>1.013876350750501</v>
+        <v>1.068342462229674</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047684539324427</v>
+        <v>1.049464018973031</v>
       </c>
       <c r="J14">
-        <v>1.030539264385946</v>
+        <v>1.060920330409482</v>
       </c>
       <c r="K14">
-        <v>1.03410602454439</v>
+        <v>1.056910205344776</v>
       </c>
       <c r="L14">
-        <v>1.027872278874162</v>
+        <v>1.063487963135149</v>
       </c>
       <c r="M14">
-        <v>1.028557871717258</v>
+        <v>1.071797259556505</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001980837252829</v>
+        <v>1.054619283086456</v>
       </c>
       <c r="D15">
-        <v>1.02013151197581</v>
+        <v>1.053507408280012</v>
       </c>
       <c r="E15">
-        <v>1.013882760365317</v>
+        <v>1.060130597345736</v>
       </c>
       <c r="F15">
-        <v>1.014667534402012</v>
+        <v>1.068487219853426</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048023716465195</v>
+        <v>1.049511964611079</v>
       </c>
       <c r="J15">
-        <v>1.031120851008787</v>
+        <v>1.061020567941765</v>
       </c>
       <c r="K15">
-        <v>1.034613631587775</v>
+        <v>1.056995321198872</v>
       </c>
       <c r="L15">
-        <v>1.028477032152757</v>
+        <v>1.063595122815063</v>
       </c>
       <c r="M15">
-        <v>1.029247622509177</v>
+        <v>1.071922692260882</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006581389569219</v>
+        <v>1.055417545008494</v>
       </c>
       <c r="D16">
-        <v>1.023607544926887</v>
+        <v>1.054116055023059</v>
       </c>
       <c r="E16">
-        <v>1.017933588336011</v>
+        <v>1.060867274413096</v>
       </c>
       <c r="F16">
-        <v>1.01921568776373</v>
+        <v>1.069329701935846</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049968034905913</v>
+        <v>1.049790388292821</v>
       </c>
       <c r="J16">
-        <v>1.034460341227078</v>
+        <v>1.061603525410081</v>
       </c>
       <c r="K16">
-        <v>1.037527784437197</v>
+        <v>1.057490223973508</v>
       </c>
       <c r="L16">
-        <v>1.03195067387637</v>
+        <v>1.064218445781366</v>
       </c>
       <c r="M16">
-        <v>1.033210767907299</v>
+        <v>1.072652496876572</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009415190887488</v>
+        <v>1.055918021743466</v>
       </c>
       <c r="D17">
-        <v>1.025750281475269</v>
+        <v>1.054497599179297</v>
       </c>
       <c r="E17">
-        <v>1.020431176054668</v>
+        <v>1.061329215657172</v>
       </c>
       <c r="F17">
-        <v>1.022020305979561</v>
+        <v>1.069858110242154</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051162188527033</v>
+        <v>1.049964473097653</v>
       </c>
       <c r="J17">
-        <v>1.036516304120711</v>
+        <v>1.061968789047269</v>
       </c>
       <c r="K17">
-        <v>1.03932139224958</v>
+        <v>1.057800217598442</v>
       </c>
       <c r="L17">
-        <v>1.034090211406888</v>
+        <v>1.064609096322195</v>
       </c>
       <c r="M17">
-        <v>1.035652949667084</v>
+        <v>1.073110050792981</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011050084885955</v>
+        <v>1.056209851884329</v>
       </c>
       <c r="D18">
-        <v>1.026987018757024</v>
+        <v>1.054720060284931</v>
       </c>
       <c r="E18">
-        <v>1.021872931096983</v>
+        <v>1.06159860266589</v>
       </c>
       <c r="F18">
-        <v>1.023639452965664</v>
+        <v>1.070166302017517</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051849849682411</v>
+        <v>1.050065811407155</v>
       </c>
       <c r="J18">
-        <v>1.037702036437418</v>
+        <v>1.062181694218566</v>
       </c>
       <c r="K18">
-        <v>1.040355631559446</v>
+        <v>1.057980871705878</v>
       </c>
       <c r="L18">
-        <v>1.035324496079974</v>
+        <v>1.064836833320464</v>
       </c>
       <c r="M18">
-        <v>1.037062244024785</v>
+        <v>1.073376851279344</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011604551918484</v>
+        <v>1.056309343366601</v>
       </c>
       <c r="D19">
-        <v>1.027406539987267</v>
+        <v>1.054795899060566</v>
       </c>
       <c r="E19">
-        <v>1.022362034024384</v>
+        <v>1.061690447354269</v>
       </c>
       <c r="F19">
-        <v>1.024188762145618</v>
+        <v>1.070271384194956</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052082848197733</v>
+        <v>1.050100330865073</v>
       </c>
       <c r="J19">
-        <v>1.038104101137272</v>
+        <v>1.062254264541902</v>
       </c>
       <c r="K19">
-        <v>1.04070629506997</v>
+        <v>1.058042443029685</v>
       </c>
       <c r="L19">
-        <v>1.035743083838301</v>
+        <v>1.064914465000923</v>
       </c>
       <c r="M19">
-        <v>1.03754025461692</v>
+        <v>1.073467809378153</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009113029995101</v>
+        <v>1.055864334611333</v>
       </c>
       <c r="D20">
-        <v>1.025521750388858</v>
+        <v>1.054456672133725</v>
       </c>
       <c r="E20">
-        <v>1.020164777677776</v>
+        <v>1.061279659498364</v>
       </c>
       <c r="F20">
-        <v>1.021721143125496</v>
+        <v>1.069801419113466</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051034991197773</v>
+        <v>1.049945816393657</v>
       </c>
       <c r="J20">
-        <v>1.036297123802257</v>
+        <v>1.06192961493448</v>
       </c>
       <c r="K20">
-        <v>1.039130199954075</v>
+        <v>1.057766974775885</v>
       </c>
       <c r="L20">
-        <v>1.033862084784511</v>
+        <v>1.064567195945602</v>
       </c>
       <c r="M20">
-        <v>1.035392510705898</v>
+        <v>1.07306096819575</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000795997099737</v>
+        <v>1.054416507408872</v>
       </c>
       <c r="D21">
-        <v>1.019236823766965</v>
+        <v>1.053352783160342</v>
       </c>
       <c r="E21">
-        <v>1.012840279878603</v>
+        <v>1.059943489020394</v>
       </c>
       <c r="F21">
-        <v>1.013497181571272</v>
+        <v>1.068273275384355</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04752189395865</v>
+        <v>1.049441092468313</v>
       </c>
       <c r="J21">
-        <v>1.030260475659719</v>
+        <v>1.060872414506236</v>
       </c>
       <c r="K21">
-        <v>1.033862689126953</v>
+        <v>1.056869516007457</v>
       </c>
       <c r="L21">
-        <v>1.027582405247803</v>
+        <v>1.063436740189037</v>
       </c>
       <c r="M21">
-        <v>1.028227279423752</v>
+        <v>1.071737305384715</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.995388275508942</v>
+        <v>1.053505367050572</v>
       </c>
       <c r="D22">
-        <v>1.01515630597654</v>
+        <v>1.05265792340598</v>
       </c>
       <c r="E22">
-        <v>1.008086378883062</v>
+        <v>1.059102863924545</v>
       </c>
       <c r="F22">
-        <v>1.008160655891479</v>
+        <v>1.067312265963715</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045226299346378</v>
+        <v>1.049121918476128</v>
       </c>
       <c r="J22">
-        <v>1.026332224759331</v>
+        <v>1.060206367797926</v>
       </c>
       <c r="K22">
-        <v>1.030433376432806</v>
+        <v>1.056303791534092</v>
       </c>
       <c r="L22">
-        <v>1.023499327250713</v>
+        <v>1.062724850983608</v>
       </c>
       <c r="M22">
-        <v>1.023572163734743</v>
+        <v>1.07090429534345</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9982727658962823</v>
+        <v>1.053988460194385</v>
       </c>
       <c r="D23">
-        <v>1.017332258517014</v>
+        <v>1.053026358398878</v>
       </c>
       <c r="E23">
-        <v>1.010621286622994</v>
+        <v>1.059548545693479</v>
       </c>
       <c r="F23">
-        <v>1.011006139802805</v>
+        <v>1.06782173591449</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046451817817387</v>
+        <v>1.049291293002798</v>
       </c>
       <c r="J23">
-        <v>1.028427837745435</v>
+        <v>1.060559579975782</v>
       </c>
       <c r="K23">
-        <v>1.032262958536741</v>
+        <v>1.056603831606477</v>
       </c>
       <c r="L23">
-        <v>1.025677222369459</v>
+        <v>1.063102344700493</v>
       </c>
       <c r="M23">
-        <v>1.026054834975968</v>
+        <v>1.071345963906493</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009249618995098</v>
+        <v>1.055888593791706</v>
       </c>
       <c r="D24">
-        <v>1.025625054068949</v>
+        <v>1.054475165573181</v>
       </c>
       <c r="E24">
-        <v>1.020285197994173</v>
+        <v>1.061302051964834</v>
       </c>
       <c r="F24">
-        <v>1.021856373513629</v>
+        <v>1.069827035455501</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051092493529249</v>
+        <v>1.049954247180501</v>
       </c>
       <c r="J24">
-        <v>1.03639620347881</v>
+        <v>1.061947316483723</v>
       </c>
       <c r="K24">
-        <v>1.039216628322546</v>
+        <v>1.057781996270579</v>
       </c>
       <c r="L24">
-        <v>1.033965207511554</v>
+        <v>1.064586129301717</v>
       </c>
       <c r="M24">
-        <v>1.035510238661067</v>
+        <v>1.073083146764972</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.021287184653324</v>
+        <v>1.058090097352469</v>
       </c>
       <c r="D25">
-        <v>1.03473937168391</v>
+        <v>1.056153015018199</v>
       </c>
       <c r="E25">
-        <v>1.03091449801813</v>
+        <v>1.063334731977654</v>
       </c>
       <c r="F25">
-        <v>1.033796590175909</v>
+        <v>1.072153308375985</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056132500851643</v>
+        <v>1.050715633650705</v>
       </c>
       <c r="J25">
-        <v>1.045118790147916</v>
+        <v>1.06355195336884</v>
       </c>
       <c r="K25">
-        <v>1.046821318876788</v>
+        <v>1.05914292495388</v>
       </c>
       <c r="L25">
-        <v>1.043051138948134</v>
+        <v>1.066303169535266</v>
       </c>
       <c r="M25">
-        <v>1.045891971103428</v>
+        <v>1.075095807636301</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_252/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_252/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.059843338016958</v>
+        <v>1.030396451540559</v>
       </c>
       <c r="D2">
-        <v>1.057488595582969</v>
+        <v>1.041648530211702</v>
       </c>
       <c r="E2">
-        <v>1.064954358630998</v>
+        <v>1.038980066986587</v>
       </c>
       <c r="F2">
-        <v>1.074008256550537</v>
+        <v>1.042862977473461</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051316569052303</v>
+        <v>1.059905093463364</v>
       </c>
       <c r="J2">
-        <v>1.064827267394267</v>
+        <v>1.051704521781316</v>
       </c>
       <c r="K2">
-        <v>1.060223427134904</v>
+        <v>1.052556597052647</v>
       </c>
       <c r="L2">
-        <v>1.067668902807051</v>
+        <v>1.049921799421253</v>
       </c>
       <c r="M2">
-        <v>1.076698606907402</v>
+        <v>1.053755793864252</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061114870383562</v>
+        <v>1.036756544656981</v>
       </c>
       <c r="D3">
-        <v>1.05845684050984</v>
+        <v>1.046477676023529</v>
       </c>
       <c r="E3">
-        <v>1.06612946171137</v>
+        <v>1.044622786287972</v>
       </c>
       <c r="F3">
-        <v>1.075354904110726</v>
+        <v>1.049209933056126</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051749249178972</v>
+        <v>1.062514235656357</v>
       </c>
       <c r="J3">
-        <v>1.065750676083208</v>
+        <v>1.056292985244357</v>
       </c>
       <c r="K3">
-        <v>1.06100512603514</v>
+        <v>1.05654849585598</v>
       </c>
       <c r="L3">
-        <v>1.068658410990063</v>
+        <v>1.054714853968665</v>
       </c>
       <c r="M3">
-        <v>1.077860996936937</v>
+        <v>1.059249623495371</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.061936978308239</v>
+        <v>1.040763519186221</v>
       </c>
       <c r="D4">
-        <v>1.059082677099288</v>
+        <v>1.049521988596834</v>
       </c>
       <c r="E4">
-        <v>1.066889439369922</v>
+        <v>1.048182645200004</v>
       </c>
       <c r="F4">
-        <v>1.076226201130027</v>
+        <v>1.053216117632808</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052027541051118</v>
+        <v>1.064146228055801</v>
       </c>
       <c r="J4">
-        <v>1.066347004910497</v>
+        <v>1.059178999307434</v>
       </c>
       <c r="K4">
-        <v>1.061509636208021</v>
+        <v>1.059057323529332</v>
       </c>
       <c r="L4">
-        <v>1.069297718326626</v>
+        <v>1.057732350690606</v>
       </c>
       <c r="M4">
-        <v>1.078612520720356</v>
+        <v>1.062712048065306</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.062282438033621</v>
+        <v>1.042423337916979</v>
       </c>
       <c r="D5">
-        <v>1.059345617109901</v>
+        <v>1.050783415160587</v>
       </c>
       <c r="E5">
-        <v>1.067208842431637</v>
+        <v>1.049658361387203</v>
       </c>
       <c r="F5">
-        <v>1.076592479655903</v>
+        <v>1.054877367460308</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052144133647642</v>
+        <v>1.064819372888597</v>
       </c>
       <c r="J5">
-        <v>1.066597421605677</v>
+        <v>1.060373282978868</v>
       </c>
       <c r="K5">
-        <v>1.061721422496386</v>
+        <v>1.060095034963738</v>
       </c>
       <c r="L5">
-        <v>1.06956625302288</v>
+        <v>1.058981715931896</v>
       </c>
       <c r="M5">
-        <v>1.078928315460299</v>
+        <v>1.064146543538518</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.062340433278</v>
+        <v>1.042700614162533</v>
       </c>
       <c r="D6">
-        <v>1.059389756463154</v>
+        <v>1.050994159058914</v>
       </c>
       <c r="E6">
-        <v>1.067262466313841</v>
+        <v>1.049904946491571</v>
       </c>
       <c r="F6">
-        <v>1.076653978654047</v>
+        <v>1.055154985112497</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052163686558265</v>
+        <v>1.064931652583145</v>
       </c>
       <c r="J6">
-        <v>1.066639451317128</v>
+        <v>1.060572718956637</v>
       </c>
       <c r="K6">
-        <v>1.06175696423051</v>
+        <v>1.060268295620384</v>
       </c>
       <c r="L6">
-        <v>1.069611327751985</v>
+        <v>1.059190389605001</v>
       </c>
       <c r="M6">
-        <v>1.078981330310139</v>
+        <v>1.064386192353915</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.061941594960863</v>
+        <v>1.040785793289484</v>
       </c>
       <c r="D7">
-        <v>1.059086191149768</v>
+        <v>1.049538915052827</v>
       </c>
       <c r="E7">
-        <v>1.06689370760593</v>
+        <v>1.04820244441122</v>
       </c>
       <c r="F7">
-        <v>1.076231095415828</v>
+        <v>1.053238404034469</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052029100542529</v>
+        <v>1.064155272836311</v>
       </c>
       <c r="J7">
-        <v>1.066350352087945</v>
+        <v>1.059195030908235</v>
       </c>
       <c r="K7">
-        <v>1.061512467321864</v>
+        <v>1.05907125530655</v>
       </c>
       <c r="L7">
-        <v>1.069301307401733</v>
+        <v>1.057749119027057</v>
       </c>
       <c r="M7">
-        <v>1.078616740954962</v>
+        <v>1.062731297499637</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.060273196622993</v>
+        <v>1.032569104441676</v>
       </c>
       <c r="D8">
-        <v>1.057815960874313</v>
+        <v>1.043297762104194</v>
       </c>
       <c r="E8">
-        <v>1.065351572985682</v>
+        <v>1.040906605372785</v>
       </c>
       <c r="F8">
-        <v>1.074463379512886</v>
+        <v>1.045029541695408</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051463144105225</v>
+        <v>1.060798854908274</v>
       </c>
       <c r="J8">
-        <v>1.065139582965402</v>
+        <v>1.053272956263643</v>
       </c>
       <c r="K8">
-        <v>1.060487876428537</v>
+        <v>1.053921517968323</v>
       </c>
       <c r="L8">
-        <v>1.068003514067317</v>
+        <v>1.051559576768552</v>
       </c>
       <c r="M8">
-        <v>1.077091572086989</v>
+        <v>1.055632242110968</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.057328077904751</v>
+        <v>1.017198839513467</v>
       </c>
       <c r="D9">
-        <v>1.055572346752931</v>
+        <v>1.031641682310855</v>
       </c>
       <c r="E9">
-        <v>1.062631017901786</v>
+        <v>1.027300745127885</v>
       </c>
       <c r="F9">
-        <v>1.071347737967042</v>
+        <v>1.029736263579961</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05045292942184</v>
+        <v>1.054427188677805</v>
       </c>
       <c r="J9">
-        <v>1.062996931572487</v>
+        <v>1.042158545986641</v>
       </c>
       <c r="K9">
-        <v>1.058672371640555</v>
+        <v>1.044241438392733</v>
       </c>
       <c r="L9">
-        <v>1.065709100971357</v>
+        <v>1.039965888336193</v>
       </c>
       <c r="M9">
-        <v>1.074399160397423</v>
+        <v>1.04236463437452</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055360974121482</v>
+        <v>1.006258653725948</v>
       </c>
       <c r="D10">
-        <v>1.054072925017169</v>
+        <v>1.023363589352107</v>
       </c>
       <c r="E10">
-        <v>1.060815063024424</v>
+        <v>1.017649259158518</v>
       </c>
       <c r="F10">
-        <v>1.069269983939146</v>
+        <v>1.018896426165713</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049770687611687</v>
+        <v>1.049831862164005</v>
       </c>
       <c r="J10">
-        <v>1.061562227159308</v>
+        <v>1.034226137990453</v>
       </c>
       <c r="K10">
-        <v>1.057455170018461</v>
+        <v>1.03732344231523</v>
       </c>
       <c r="L10">
-        <v>1.064174281820858</v>
+        <v>1.031706998626002</v>
       </c>
       <c r="M10">
-        <v>1.072600777576274</v>
+        <v>1.032932680559927</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054508275049999</v>
+        <v>1.001333031473733</v>
       </c>
       <c r="D11">
-        <v>1.053422760687492</v>
+        <v>1.019642317475674</v>
       </c>
       <c r="E11">
-        <v>1.060028165110829</v>
+        <v>1.01331274933329</v>
       </c>
       <c r="F11">
-        <v>1.068370094349853</v>
+        <v>1.014027599546943</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049473173482858</v>
+        <v>1.047749400287667</v>
       </c>
       <c r="J11">
-        <v>1.060939465915976</v>
+        <v>1.030650459735034</v>
       </c>
       <c r="K11">
-        <v>1.0569264545258</v>
+        <v>1.034203077581571</v>
       </c>
       <c r="L11">
-        <v>1.063508419673574</v>
+        <v>1.027987899105605</v>
       </c>
       <c r="M11">
-        <v>1.071821203632849</v>
+        <v>1.028689737277626</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054191400859505</v>
+        <v>0.9994728192033085</v>
       </c>
       <c r="D12">
-        <v>1.053181122469866</v>
+        <v>1.018237943149519</v>
       </c>
       <c r="E12">
-        <v>1.059735786291483</v>
+        <v>1.011676462219407</v>
       </c>
       <c r="F12">
-        <v>1.068035800214284</v>
+        <v>1.012190657641982</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049362346626016</v>
+        <v>1.046960981369329</v>
       </c>
       <c r="J12">
-        <v>1.060707912804527</v>
+        <v>1.029299507037192</v>
       </c>
       <c r="K12">
-        <v>1.056729814501057</v>
+        <v>1.033023880075164</v>
       </c>
       <c r="L12">
-        <v>1.06326089431755</v>
+        <v>1.02658332729378</v>
       </c>
       <c r="M12">
-        <v>1.071531502242107</v>
+        <v>1.02708797224898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054259378020876</v>
+        <v>0.9998732662990834</v>
       </c>
       <c r="D13">
-        <v>1.053232960980351</v>
+        <v>1.018540214695604</v>
       </c>
       <c r="E13">
-        <v>1.059798506659346</v>
+        <v>1.012028638228637</v>
       </c>
       <c r="F13">
-        <v>1.068107509088996</v>
+        <v>1.012586011833944</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049386133726242</v>
+        <v>1.047130791034913</v>
       </c>
       <c r="J13">
-        <v>1.060757592269731</v>
+        <v>1.02959035002929</v>
       </c>
       <c r="K13">
-        <v>1.056772005873752</v>
+        <v>1.033277758156267</v>
       </c>
       <c r="L13">
-        <v>1.063313998195261</v>
+        <v>1.02688568807257</v>
       </c>
       <c r="M13">
-        <v>1.071593650242807</v>
+        <v>1.027432753839405</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.05448208508726</v>
+        <v>1.001179904545535</v>
       </c>
       <c r="D14">
-        <v>1.053402789630372</v>
+        <v>1.019526692571483</v>
       </c>
       <c r="E14">
-        <v>1.060003998838503</v>
+        <v>1.013178025364232</v>
       </c>
       <c r="F14">
-        <v>1.068342462229674</v>
+        <v>1.013876350750502</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049464018973031</v>
+        <v>1.047684539324428</v>
       </c>
       <c r="J14">
-        <v>1.060920330409482</v>
+        <v>1.030539264385947</v>
       </c>
       <c r="K14">
-        <v>1.056910205344776</v>
+        <v>1.03410602454439</v>
       </c>
       <c r="L14">
-        <v>1.063487963135149</v>
+        <v>1.027872278874162</v>
       </c>
       <c r="M14">
-        <v>1.071797259556505</v>
+        <v>1.028557871717258</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.054619283086456</v>
+        <v>1.001980837252829</v>
       </c>
       <c r="D15">
-        <v>1.053507408280012</v>
+        <v>1.02013151197581</v>
       </c>
       <c r="E15">
-        <v>1.060130597345736</v>
+        <v>1.013882760365317</v>
       </c>
       <c r="F15">
-        <v>1.068487219853426</v>
+        <v>1.014667534402012</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049511964611079</v>
+        <v>1.048023716465195</v>
       </c>
       <c r="J15">
-        <v>1.061020567941765</v>
+        <v>1.031120851008788</v>
       </c>
       <c r="K15">
-        <v>1.056995321198872</v>
+        <v>1.034613631587775</v>
       </c>
       <c r="L15">
-        <v>1.063595122815063</v>
+        <v>1.028477032152757</v>
       </c>
       <c r="M15">
-        <v>1.071922692260882</v>
+        <v>1.029247622509177</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.055417545008494</v>
+        <v>1.006581389569219</v>
       </c>
       <c r="D16">
-        <v>1.054116055023059</v>
+        <v>1.023607544926887</v>
       </c>
       <c r="E16">
-        <v>1.060867274413096</v>
+        <v>1.017933588336011</v>
       </c>
       <c r="F16">
-        <v>1.069329701935846</v>
+        <v>1.01921568776373</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049790388292821</v>
+        <v>1.049968034905913</v>
       </c>
       <c r="J16">
-        <v>1.061603525410081</v>
+        <v>1.034460341227078</v>
       </c>
       <c r="K16">
-        <v>1.057490223973508</v>
+        <v>1.037527784437197</v>
       </c>
       <c r="L16">
-        <v>1.064218445781366</v>
+        <v>1.03195067387637</v>
       </c>
       <c r="M16">
-        <v>1.072652496876572</v>
+        <v>1.033210767907299</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.055918021743466</v>
+        <v>1.009415190887486</v>
       </c>
       <c r="D17">
-        <v>1.054497599179297</v>
+        <v>1.025750281475267</v>
       </c>
       <c r="E17">
-        <v>1.061329215657172</v>
+        <v>1.020431176054667</v>
       </c>
       <c r="F17">
-        <v>1.069858110242154</v>
+        <v>1.022020305979559</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049964473097653</v>
+        <v>1.051162188527033</v>
       </c>
       <c r="J17">
-        <v>1.061968789047269</v>
+        <v>1.036516304120709</v>
       </c>
       <c r="K17">
-        <v>1.057800217598442</v>
+        <v>1.039321392249578</v>
       </c>
       <c r="L17">
-        <v>1.064609096322195</v>
+        <v>1.034090211406886</v>
       </c>
       <c r="M17">
-        <v>1.073110050792981</v>
+        <v>1.035652949667082</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056209851884329</v>
+        <v>1.011050084885954</v>
       </c>
       <c r="D18">
-        <v>1.054720060284931</v>
+        <v>1.026987018757023</v>
       </c>
       <c r="E18">
-        <v>1.06159860266589</v>
+        <v>1.021872931096981</v>
       </c>
       <c r="F18">
-        <v>1.070166302017517</v>
+        <v>1.023639452965662</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050065811407155</v>
+        <v>1.05184984968241</v>
       </c>
       <c r="J18">
-        <v>1.062181694218566</v>
+        <v>1.037702036437416</v>
       </c>
       <c r="K18">
-        <v>1.057980871705878</v>
+        <v>1.040355631559444</v>
       </c>
       <c r="L18">
-        <v>1.064836833320464</v>
+        <v>1.035324496079973</v>
       </c>
       <c r="M18">
-        <v>1.073376851279344</v>
+        <v>1.037062244024783</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056309343366601</v>
+        <v>1.011604551918487</v>
       </c>
       <c r="D19">
-        <v>1.054795899060566</v>
+        <v>1.02740653998727</v>
       </c>
       <c r="E19">
-        <v>1.061690447354269</v>
+        <v>1.022362034024386</v>
       </c>
       <c r="F19">
-        <v>1.070271384194956</v>
+        <v>1.024188762145621</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050100330865073</v>
+        <v>1.052082848197735</v>
       </c>
       <c r="J19">
-        <v>1.062254264541902</v>
+        <v>1.038104101137274</v>
       </c>
       <c r="K19">
-        <v>1.058042443029685</v>
+        <v>1.040706295069973</v>
       </c>
       <c r="L19">
-        <v>1.064914465000923</v>
+        <v>1.035743083838304</v>
       </c>
       <c r="M19">
-        <v>1.073467809378153</v>
+        <v>1.037540254616923</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.055864334611333</v>
+        <v>1.009113029995102</v>
       </c>
       <c r="D20">
-        <v>1.054456672133725</v>
+        <v>1.025521750388858</v>
       </c>
       <c r="E20">
-        <v>1.061279659498364</v>
+        <v>1.020164777677775</v>
       </c>
       <c r="F20">
-        <v>1.069801419113466</v>
+        <v>1.021721143125496</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049945816393657</v>
+        <v>1.051034991197773</v>
       </c>
       <c r="J20">
-        <v>1.06192961493448</v>
+        <v>1.036297123802257</v>
       </c>
       <c r="K20">
-        <v>1.057766974775885</v>
+        <v>1.039130199954075</v>
       </c>
       <c r="L20">
-        <v>1.064567195945602</v>
+        <v>1.033862084784511</v>
       </c>
       <c r="M20">
-        <v>1.07306096819575</v>
+        <v>1.035392510705898</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054416507408872</v>
+        <v>1.000795997099738</v>
       </c>
       <c r="D21">
-        <v>1.053352783160342</v>
+        <v>1.019236823766965</v>
       </c>
       <c r="E21">
-        <v>1.059943489020394</v>
+        <v>1.012840279878604</v>
       </c>
       <c r="F21">
-        <v>1.068273275384355</v>
+        <v>1.013497181571272</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049441092468313</v>
+        <v>1.047521893958651</v>
       </c>
       <c r="J21">
-        <v>1.060872414506236</v>
+        <v>1.03026047565972</v>
       </c>
       <c r="K21">
-        <v>1.056869516007457</v>
+        <v>1.033862689126954</v>
       </c>
       <c r="L21">
-        <v>1.063436740189037</v>
+        <v>1.027582405247803</v>
       </c>
       <c r="M21">
-        <v>1.071737305384715</v>
+        <v>1.028227279423753</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.053505367050572</v>
+        <v>0.9953882755089408</v>
       </c>
       <c r="D22">
-        <v>1.05265792340598</v>
+        <v>1.015156305976539</v>
       </c>
       <c r="E22">
-        <v>1.059102863924545</v>
+        <v>1.008086378883061</v>
       </c>
       <c r="F22">
-        <v>1.067312265963715</v>
+        <v>1.008160655891477</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049121918476128</v>
+        <v>1.045226299346377</v>
       </c>
       <c r="J22">
-        <v>1.060206367797926</v>
+        <v>1.026332224759329</v>
       </c>
       <c r="K22">
-        <v>1.056303791534092</v>
+        <v>1.030433376432805</v>
       </c>
       <c r="L22">
-        <v>1.062724850983608</v>
+        <v>1.023499327250711</v>
       </c>
       <c r="M22">
-        <v>1.07090429534345</v>
+        <v>1.023572163734741</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.053988460194385</v>
+        <v>0.9982727658962831</v>
       </c>
       <c r="D23">
-        <v>1.053026358398878</v>
+        <v>1.017332258517015</v>
       </c>
       <c r="E23">
-        <v>1.059548545693479</v>
+        <v>1.010621286622995</v>
       </c>
       <c r="F23">
-        <v>1.06782173591449</v>
+        <v>1.011006139802806</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049291293002798</v>
+        <v>1.046451817817388</v>
       </c>
       <c r="J23">
-        <v>1.060559579975782</v>
+        <v>1.028427837745436</v>
       </c>
       <c r="K23">
-        <v>1.056603831606477</v>
+        <v>1.032262958536742</v>
       </c>
       <c r="L23">
-        <v>1.063102344700493</v>
+        <v>1.025677222369461</v>
       </c>
       <c r="M23">
-        <v>1.071345963906493</v>
+        <v>1.026054834975969</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.055888593791706</v>
+        <v>1.009249618995099</v>
       </c>
       <c r="D24">
-        <v>1.054475165573181</v>
+        <v>1.02562505406895</v>
       </c>
       <c r="E24">
-        <v>1.061302051964834</v>
+        <v>1.020285197994174</v>
       </c>
       <c r="F24">
-        <v>1.069827035455501</v>
+        <v>1.02185637351363</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049954247180501</v>
+        <v>1.051092493529249</v>
       </c>
       <c r="J24">
-        <v>1.061947316483723</v>
+        <v>1.036396203478811</v>
       </c>
       <c r="K24">
-        <v>1.057781996270579</v>
+        <v>1.039216628322546</v>
       </c>
       <c r="L24">
-        <v>1.064586129301717</v>
+        <v>1.033965207511555</v>
       </c>
       <c r="M24">
-        <v>1.073083146764972</v>
+        <v>1.035510238661069</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.058090097352469</v>
+        <v>1.021287184653324</v>
       </c>
       <c r="D25">
-        <v>1.056153015018199</v>
+        <v>1.034739371683911</v>
       </c>
       <c r="E25">
-        <v>1.063334731977654</v>
+        <v>1.03091449801813</v>
       </c>
       <c r="F25">
-        <v>1.072153308375985</v>
+        <v>1.033796590175909</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050715633650705</v>
+        <v>1.056132500851644</v>
       </c>
       <c r="J25">
-        <v>1.06355195336884</v>
+        <v>1.045118790147916</v>
       </c>
       <c r="K25">
-        <v>1.05914292495388</v>
+        <v>1.046821318876788</v>
       </c>
       <c r="L25">
-        <v>1.066303169535266</v>
+        <v>1.043051138948134</v>
       </c>
       <c r="M25">
-        <v>1.075095807636301</v>
+        <v>1.045891971103428</v>
       </c>
     </row>
   </sheetData>
